--- a/instruction_set.xlsx
+++ b/instruction_set.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\0x\0xVM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\0x\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF863F3-54E5-470F-96E0-D9A29D7E8842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E3DDF4-4A04-4A27-AEC4-047747D61555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="2730" windowWidth="23025" windowHeight="14025" xr2:uid="{1E484941-6C4F-4B8C-8513-72E5850C2E1E}"/>
+    <workbookView xWindow="2970" yWindow="1740" windowWidth="23025" windowHeight="14025" xr2:uid="{1E484941-6C4F-4B8C-8513-72E5850C2E1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
   <si>
     <t>A</t>
   </si>
@@ -1117,6 +1117,24 @@
       </rPr>
       <t>Register, Register, Addresss</t>
     </r>
+  </si>
+  <si>
+    <t>LOAD</t>
+  </si>
+  <si>
+    <t>STORE</t>
+  </si>
+  <si>
+    <t>LOADR</t>
+  </si>
+  <si>
+    <t>LOADM</t>
+  </si>
+  <si>
+    <t>STORER</t>
+  </si>
+  <si>
+    <t>STOREM</t>
   </si>
 </sst>
 </file>
@@ -1500,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C68D6B-92A2-4BB8-9A39-79A2CDD34874}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1613,6 +1631,24 @@
       <c r="J3" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="K3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="4" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">

--- a/instruction_set.xlsx
+++ b/instruction_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\0x\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E3DDF4-4A04-4A27-AEC4-047747D61555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7992FD01-6038-4097-ABB2-7ED2C0739FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="1740" windowWidth="23025" windowHeight="14025" xr2:uid="{1E484941-6C4F-4B8C-8513-72E5850C2E1E}"/>
+    <workbookView xWindow="-25290" yWindow="2370" windowWidth="23025" windowHeight="14025" xr2:uid="{1E484941-6C4F-4B8C-8513-72E5850C2E1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1518,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C68D6B-92A2-4BB8-9A39-79A2CDD34874}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
